--- a/database/lista_verificacao_individual_lucas.xlsx
+++ b/database/lista_verificacao_individual_lucas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\51350152803\Desktop\SAEP-2025\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626E4333-1B5B-44A3-A4E3-DA46F306E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F94E560-D6D2-49EE-864D-8F6144F6773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="128">
   <si>
     <t>LISTA DE VERIFICAÇÃO – Técnico em Desenvolvimento de Sistemas</t>
   </si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>https://github.com/LucasSilvaC/Mekanism</t>
   </si>
 </sst>
 </file>
@@ -769,29 +772,71 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -803,48 +848,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,30 +1266,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="22">
         <v>42094727866</v>
       </c>
     </row>
@@ -1294,20 +1297,20 @@
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="21">
         <v>45992</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="20">
         <v>0.70833333333333337</v>
       </c>
     </row>
@@ -1325,15 +1328,18 @@
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="31" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -1368,10 +1374,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1396,8 +1402,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1410,7 +1416,9 @@
       <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
       <c r="J10" s="11" t="s">
@@ -1418,12 +1426,12 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="25" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="32" t="s">
         <v>35</v>
       </c>
       <c r="E11" s="7" t="s">
@@ -1432,47 +1440,53 @@
       <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H11" s="9"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="33"/>
       <c r="E12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H12" s="9"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="24"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H13" s="9"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="32" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="35" t="s">
+      <c r="D14" s="26" t="s">
         <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -1481,7 +1495,9 @@
       <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
       <c r="J14" s="17" t="s">
@@ -1489,29 +1505,31 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="36"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="32" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7" t="s">
@@ -1520,37 +1538,43 @@
       <c r="F16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="G16" s="9"/>
+      <c r="G16" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H16" s="9"/>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="33"/>
       <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H17" s="9"/>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="7" t="s">
         <v>56</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H18" s="9"/>
       <c r="I18" s="8"/>
       <c r="J18" s="18" t="s">
@@ -1558,47 +1582,53 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="33"/>
       <c r="E19" s="7" t="s">
         <v>59</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="9"/>
+      <c r="G19" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H19" s="9"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="33"/>
       <c r="E20" s="7" t="s">
         <v>61</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="G20" s="9"/>
+      <c r="G20" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="33"/>
       <c r="E21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="9"/>
+      <c r="G21" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="8"/>
       <c r="J21" s="11" t="s">
@@ -1606,198 +1636,224 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="33"/>
       <c r="E22" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="9"/>
+      <c r="G22" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H22" s="9"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H23" s="9"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="9"/>
+      <c r="G24" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H24" s="9"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="7" t="s">
         <v>72</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H25" s="9"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H26" s="9"/>
       <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="G27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H27" s="9"/>
       <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H28" s="9"/>
       <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="7" t="s">
         <v>80</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="9"/>
+      <c r="G29" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H29" s="9"/>
       <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="7" t="s">
         <v>82</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H30" s="9"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="7" t="s">
         <v>84</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="9"/>
+      <c r="G31" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H32" s="9"/>
       <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G33" s="9"/>
+      <c r="G33" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H33" s="9"/>
       <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="24"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="7" t="s">
         <v>90</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="9"/>
+      <c r="G34" s="9" t="s">
+        <v>126</v>
+      </c>
       <c r="H34" s="9"/>
       <c r="I34" s="8"/>
       <c r="J34" s="11" t="s">
@@ -1805,16 +1861,16 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C35" s="32" t="s">
+      <c r="C35" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="35" t="s">
+      <c r="D35" s="26" t="s">
         <v>96</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1828,15 +1884,15 @@
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="4"/>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="27"/>
       <c r="E36" s="3" t="s">
         <v>100</v>
       </c>
@@ -1848,11 +1904,11 @@
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="38"/>
+      <c r="J36" s="24"/>
     </row>
     <row r="37" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="29"/>
       <c r="C37" s="7" t="s">
         <v>102</v>
       </c>
@@ -1870,17 +1926,17 @@
       </c>
       <c r="H37" s="9"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="38"/>
+      <c r="J37" s="24"/>
     </row>
     <row r="38" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="C38" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D38" s="35" t="s">
+      <c r="D38" s="26" t="s">
         <v>108</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -1894,13 +1950,13 @@
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="38"/>
+      <c r="J38" s="24"/>
     </row>
     <row r="39" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="40"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="30"/>
       <c r="E39" s="3" t="s">
         <v>111</v>
       </c>
@@ -1912,13 +1968,13 @@
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="38"/>
+      <c r="J39" s="24"/>
     </row>
     <row r="40" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="36"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="27"/>
       <c r="E40" s="3" t="s">
         <v>113</v>
       </c>
@@ -1930,10 +1986,10 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="38"/>
+      <c r="J40" s="24"/>
     </row>
     <row r="41" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
+      <c r="A41" s="31"/>
       <c r="B41" s="7" t="s">
         <v>115</v>
       </c>
@@ -1954,10 +2010,10 @@
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="8"/>
-      <c r="J41" s="38"/>
+      <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="3" t="s">
         <v>120</v>
       </c>
@@ -1978,7 +2034,7 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="39"/>
+      <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D43" s="12"/>
@@ -2042,11 +2098,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J35:J42"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B38:B40"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B37"/>
@@ -2057,13 +2115,11 @@
     <mergeCell ref="B16:B34"/>
     <mergeCell ref="A9:A34"/>
     <mergeCell ref="B9:B15"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="J35:J42"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="C38:C40"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -2071,26 +2127,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="21da9247-78d8-4e93-95a0-1bee9f738b5c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002AECA2C957FACD4BB009625F652144CC" ma:contentTypeVersion="11" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="50cbbe8958ed0c87a9d101e110aaecd4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7" xmlns:ns3="21da9247-78d8-4e93-95a0-1bee9f738b5c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f35a5509ebf394c70e7e7bd57762a88a" ns2:_="" ns3:_="">
     <xsd:import namespace="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7"/>
@@ -2285,10 +2321,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="21da9247-78d8-4e93-95a0-1bee9f738b5c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAD2823-CB44-43CD-90FD-E3E27360C3A7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B0645C-DEBB-4707-B5BF-41348EFA920A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7"/>
+    <ds:schemaRef ds:uri="21da9247-78d8-4e93-95a0-1bee9f738b5c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2305,20 +2372,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47B0645C-DEBB-4707-B5BF-41348EFA920A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBAD2823-CB44-43CD-90FD-E3E27360C3A7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="fd8aa6f0-ef0f-481d-a41a-cdf4f85bc7b7"/>
-    <ds:schemaRef ds:uri="21da9247-78d8-4e93-95a0-1bee9f738b5c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>